--- a/0_data/9_evaluation/distances/d_50/d_50_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/d_50/d_50_kl_oa_metrics.xlsx
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0308</v>
+        <v>15.9809</v>
       </c>
       <c r="C4" t="n">
-        <v>12.13</v>
+        <v>12.47</v>
       </c>
       <c r="D4" t="n">
-        <v>3.348500000000001</v>
+        <v>3.354300000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>19.9</v>
+        <v>20.51</v>
       </c>
       <c r="F4" t="n">
-        <v>5.891999999999999</v>
+        <v>5.780100000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0184</v>
+        <v>0.016</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2206</v>
+        <v>2.2045</v>
       </c>
       <c r="I4" t="n">
-        <v>4.03</v>
+        <v>1.94</v>
       </c>
       <c r="J4" t="n">
-        <v>278.85</v>
+        <v>279.58</v>
       </c>
       <c r="K4" t="n">
-        <v>6.079799999999999</v>
+        <v>5.9852</v>
       </c>
       <c r="L4" t="n">
-        <v>2.847599999999999</v>
+        <v>2.9789</v>
       </c>
       <c r="M4" t="n">
-        <v>6.0974</v>
+        <v>6.3801</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[72.46, 18.51, 100.17, 42.48, 9.55, 16.17, 0.2, 10.36, 2.05, 2.77, 1.12, 0.12, 1.5, 0.03, 0.2, 0.12, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[70.93, 24.02, 98.74, 40.45, 9.61, 16.3, 0.19, 10.32, 2.28, 2.8, 1.02, 0.11, 1.51, 0.03, 0.14, 0.06, 0.01, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[56.17, 0.82, 48.05, 1.01, 53.55, 8.74, 0.33, 44.08, 1.03, 47.99, 0.84, 16.24]</t>
+          <t>[52.89, 0.14, 47.46, 0.32, 56.01, 11.5, 0.31, 44.62, 0.71, 47.19, 0.46, 17.97]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[6.86, 72.83, 110.26, 29.15, 28.24, 3.92, 5.41, 2.61, 5.79, 1.25, 1.51, 1.03, 2.68, 0.66, 0.97, 0.49, 2.91, 0.35, 0.23, 0.16, 0.43, 0.07, 0.07, 0.04, 0.12, 0.03, 0.03, 0.04, 0.04, 0.0, 0.0, 0.0]</t>
+          <t>[7.28, 71.8, 103.13, 29.37, 34.27, 3.88, 5.53, 2.2, 6.45, 0.93, 1.79, 0.87, 3.43, 0.69, 0.97, 0.67, 4.08, 0.31, 0.32, 0.12, 0.3, 0.08, 0.0, 0.03, 0.15, 0.04, 0.01, 0.04, 0.09, 0.01, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.13, 104.84, 0.0, 62.83, 0.0, 14.18, 0.0, 62.9, 0.0, 4.95, 0.0, 3.36, 1.19, 1.71, 0.0, 11.9, 0.0, 0.9, 0.46, 0.96, 0.34, 0.68, 0.01, 1.16, 0.0, 0.44, 0.22, 0.31, 0.13, 0.28, 0.0, 4.7, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.21, 92.69, 0.0, 67.13, 0.0, 15.4, 0.0, 65.82, 0.0, 4.79, 0.01, 4.78, 1.44, 2.11, 0.0, 13.42, 0.0, 1.16, 0.33, 1.23, 0.36, 0.87, 0.01, 1.39, 0.0, 0.34, 0.25, 0.41, 0.12, 0.31, 0.0, 4.58, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[16.76, 0.02, 14.96, 0.1, 3.98, 0.4, 0.0, 3.37, 0.03, 10.33, 0.12, 5.87], [0.05, 0.22, 0.15, 0.05, 0.06, 0.12, 0.01, 0.01, 0.06, 0.03, 0.03, 0.02], [15.13, 0.18, 11.49, 0.06, 14.81, 0.43, 0.02, 2.57, 0.0, 1.92, 0.01, 1.23], [0.05, 0.13, 0.04, 0.39, 0.11, 0.12, 0.01, 0.0, 0.07, 0.01, 0.07, 0.01], [4.34, 0.07, 16.25, 0.16, 14.78, 2.83, 0.05, 10.2, 0.02, 3.85, 0.02, 0.84], [0.22, 0.07, 0.37, 0.1, 3.56, 2.65, 0.02, 1.26, 0.13, 0.29, 0.02, 0.01], [0.0, 0.02, 0.0, 0.01, 0.1, 0.03, 0.06, 0.02, 0.02, 0.03, 0.02, 0.01], [3.46, 0.0, 2.52, 0.0, 10.58, 1.55, 0.07, 11.82, 0.02, 13.24, 0.05, 0.66], [0.05, 0.04, 0.0, 0.06, 0.04, 0.08, 0.0, 0.01, 0.34, 0.18, 0.13, 0.05], [10.96, 0.04, 1.72, 0.01, 4.57, 0.34, 0.07, 13.16, 0.19, 12.22, 0.08, 4.51], [0.08, 0.02, 0.04, 0.07, 0.05, 0.08, 0.02, 0.03, 0.13, 0.09, 0.23, 0.0], [4.86, 0.01, 0.46, 0.0, 0.59, 0.09, 0.0, 1.49, 0.02, 5.57, 0.06, 3.0]]</t>
+          <t>[[14.96, 0.0, 12.94, 0.04, 4.24, 0.56, 0.01, 3.06, 0.01, 9.39, 0.11, 7.43], [0.01, 0.01, 0.05, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01], [14.51, 0.05, 11.4, 0.06, 15.25, 0.75, 0.02, 2.23, 0.0, 1.75, 0.02, 1.24], [0.03, 0.01, 0.08, 0.03, 0.05, 0.03, 0.0, 0.01, 0.02, 0.01, 0.04, 0.0], [4.18, 0.01, 17.02, 0.08, 14.42, 4.52, 0.11, 10.23, 0.02, 4.38, 0.02, 0.82], [0.26, 0.01, 0.65, 0.07, 4.94, 2.88, 0.0, 2.1, 0.06, 0.42, 0.01, 0.02], [0.01, 0.0, 0.02, 0.0, 0.14, 0.03, 0.01, 0.02, 0.02, 0.05, 0.0, 0.0], [2.94, 0.0, 2.69, 0.02, 10.71, 2.15, 0.06, 12.56, 0.01, 12.42, 0.02, 0.86], [0.01, 0.02, 0.01, 0.01, 0.0, 0.1, 0.05, 0.03, 0.29, 0.09, 0.05, 0.05], [9.3, 0.0, 2.01, 0.0, 5.12, 0.39, 0.04, 12.58, 0.22, 12.83, 0.01, 4.55], [0.11, 0.01, 0.02, 0.01, 0.07, 0.0, 0.0, 0.04, 0.02, 0.01, 0.13, 0.03], [6.34, 0.02, 0.55, 0.0, 0.7, 0.03, 0.01, 1.63, 0.04, 5.63, 0.04, 2.93]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.06, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 60.82, 0.0, 14.77, 0.0, 4.16, 0.0, 16.86, 0.0, 1.55, 0.0, 0.81, 0.28, 0.49, 0.0, 2.67, 0.0, 0.34, 0.11, 0.16, 0.03, 0.12, 0.0, 0.18, 0.0, 0.06, 0.03, 0.02, 0.02, 0.1, 0.0, 0.92], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 14.34, 0.0, 26.34, 0.0, 2.61, 0.0, 11.82, 0.0, 1.01, 0.0, 0.75, 0.27, 0.33, 0.0, 2.88, 0.0, 0.13, 0.15, 0.19, 0.11, 0.1, 0.0, 0.26, 0.0, 0.1, 0.05, 0.09, 0.05, 0.04, 0.0, 1.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 3.61, 0.0, 2.47, 0.0, 2.12, 0.0, 3.16, 0.0, 0.37, 0.0, 0.23, 0.17, 0.17, 0.0, 0.97, 0.0, 0.11, 0.01, 0.1, 0.02, 0.07, 0.0, 0.12, 0.0, 0.06, 0.01, 0.02, 0.0, 0.06, 0.0, 0.3], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 16.42, 0.0, 11.77, 0.0, 3.03, 0.0, 23.07, 0.0, 0.84, 0.0, 0.69, 0.22, 0.29, 0.0, 3.24, 0.0, 0.16, 0.13, 0.31, 0.16, 0.13, 0.01, 0.33, 0.0, 0.13, 0.06, 0.09, 0.02, 0.03, 0.0, 1.4], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 1.92, 0.0, 0.79, 0.0, 0.36, 0.0, 0.84, 0.0, 0.37, 0.0, 0.06, 0.04, 0.04, 0.0, 0.22, 0.0, 0.01, 0.0, 0.02, 0.0, 0.09, 0.0, 0.01, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.1], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 1.17, 0.0, 0.74, 0.0, 0.22, 0.0, 0.49, 0.0, 0.17, 0.0, 0.14, 0.05, 0.04, 0.0, 0.09, 0.0, 0.01, 0.01, 0.02, 0.0, 0.06, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.08], [0.0, 0.34, 0.0, 0.3, 0.0, 0.08, 0.0, 0.22, 0.0, 0.04, 0.0, 0.03, 0.0, 0.03, 0.0, 0.07, 0.0, 0.01, 0.01, 0.02, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.77, 0.0, 0.22, 0.0, 0.07, 0.0, 0.24, 0.0, 0.07, 0.0, 0.06, 0.02, 0.02, 0.0, 0.07, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.03, 0.0, 0.01, 0.01, 0.0, 0.06], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 2.57, 0.0, 3.01, 0.0, 0.88, 0.0, 3.17, 0.0, 0.12, 0.0, 0.27, 0.06, 0.15, 0.0, 1.12, 0.0, 0.05, 0.04, 0.03, 0.01, 0.04, 0.0, 0.04, 0.0, 0.02, 0.01, 0.0, 0.01, 0.02, 0.0, 0.24], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.35, 0.0, 0.15, 0.0, 0.09, 0.0, 0.14, 0.0, 0.02, 0.0, 0.02, 0.01, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04], [0.0, 0.14, 0.0, 0.06, 0.0, 0.0, 0.0, 0.17, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.26, 0.0, 0.28, 0.0, 0.04, 0.0, 0.22, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.07, 0.0, 0.08, 0.0, 0.03, 0.0, 0.1, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.13, 0.0, 0.1, 0.0, 0.04, 0.0, 0.2, 0.0, 0.09, 0.0, 0.05, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.28, 0.0, 0.25, 0.0, 0.07, 0.0, 0.2, 0.0, 0.04, 0.0, 0.05, 0.0, 0.05, 0.0, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.02, 0.0, 0.0, 0.0, 0.1], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.0, 0.15, 0.0, 0.01, 0.0, 0.11, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.0, 0.09, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.1, 0.0, 0.0, 0.0, 0.12, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.04, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.08, 0.0, 0.02, 0.0, 0.05, 0.0, 0.08, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.98, 0.0, 0.86, 0.0, 0.24, 0.0, 1.31, 0.0, 0.12, 0.0, 0.14, 0.05, 0.06, 0.0, 0.3, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.1, 0.0, 0.03, 0.0, 0.02, 0.02, 0.02, 0.0, 0.37]]</t>
+          <t>[[0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.1, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 52.29, 0.0, 13.94, 0.0, 3.19, 0.0, 15.17, 0.0, 1.26, 0.0, 0.93, 0.24, 0.52, 0.0, 2.86, 0.0, 0.32, 0.08, 0.21, 0.09, 0.16, 0.0, 0.21, 0.0, 0.04, 0.05, 0.07, 0.05, 0.04, 0.0, 0.65], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 13.49, 0.0, 31.23, 0.0, 2.37, 0.0, 11.67, 0.0, 0.83, 0.0, 1.17, 0.35, 0.36, 0.0, 3.11, 0.0, 0.2, 0.03, 0.41, 0.03, 0.2, 0.0, 0.24, 0.0, 0.08, 0.03, 0.12, 0.04, 0.02, 0.0, 0.94], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 2.94, 0.0, 2.13, 0.0, 3.84, 0.0, 3.82, 0.0, 0.4, 0.0, 0.22, 0.14, 0.14, 0.0, 0.86, 0.0, 0.04, 0.01, 0.12, 0.04, 0.04, 0.0, 0.16, 0.0, 0.04, 0.05, 0.03, 0.0, 0.1, 0.0, 0.19], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14, 14.75, 0.0, 11.94, 0.0, 3.53, 0.0, 26.13, 0.0, 0.78, 0.0, 0.88, 0.33, 0.25, 0.0, 3.98, 0.0, 0.21, 0.19, 0.27, 0.08, 0.18, 0.0, 0.34, 0.0, 0.09, 0.07, 0.12, 0.01, 0.07, 0.0, 1.21], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.47, 0.0, 0.79, 0.0, 0.38, 0.0, 0.82, 0.0, 0.21, 0.0, 0.21, 0.04, 0.16, 0.0, 0.24, 0.0, 0.07, 0.0, 0.02, 0.02, 0.03, 0.0, 0.07, 0.0, 0.03, 0.03, 0.0, 0.0, 0.01, 0.0, 0.17], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 1.22, 0.0, 1.18, 0.0, 0.21, 0.0, 0.78, 0.0, 0.27, 0.01, 0.26, 0.02, 0.11, 0.0, 0.25, 0.0, 0.02, 0.01, 0.04, 0.01, 0.06, 0.0, 0.05, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.25], [0.0, 0.37, 0.0, 0.2, 0.0, 0.12, 0.0, 0.33, 0.0, 0.09, 0.0, 0.06, 0.01, 0.05, 0.0, 0.06, 0.0, 0.01, 0.0, 0.0, 0.02, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.07], [0.0, 0.65, 0.0, 0.28, 0.0, 0.17, 0.0, 0.28, 0.0, 0.14, 0.0, 0.09, 0.03, 0.08, 0.0, 0.11, 0.0, 0.1, 0.0, 0.01, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 2.95, 0.0, 3.01, 0.0, 0.82, 0.0, 3.8, 0.0, 0.33, 0.0, 0.3, 0.11, 0.15, 0.0, 1.33, 0.0, 0.1, 0.01, 0.03, 0.02, 0.01, 0.0, 0.05, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.3], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.31, 0.0, 0.13, 0.0, 0.05, 0.0, 0.26, 0.0, 0.09, 0.0, 0.04, 0.04, 0.06, 0.0, 0.05, 0.0, 0.0, 0.0, 0.02, 0.01, 0.03, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.05], [0.0, 0.07, 0.0, 0.05, 0.0, 0.01, 0.0, 0.14, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.18, 0.0, 0.38, 0.0, 0.07, 0.0, 0.22, 0.0, 0.03, 0.0, 0.11, 0.01, 0.04, 0.0, 0.06, 0.0, 0.01, 0.0, 0.03, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.03], [0.0, 0.14, 0.0, 0.01, 0.0, 0.03, 0.0, 0.05, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02], [0.0, 0.25, 0.0, 0.09, 0.0, 0.09, 0.0, 0.09, 0.0, 0.05, 0.0, 0.05, 0.03, 0.02, 0.0, 0.04, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.05], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.28, 0.0, 0.26, 0.0, 0.13, 0.0, 0.3, 0.0, 0.07, 0.0, 0.04, 0.01, 0.02, 0.0, 0.05, 0.0, 0.02, 0.0, 0.01, 0.01, 0.02, 0.0, 0.04, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.08], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.0, 0.05, 0.0, 0.01, 0.0, 0.07, 0.0, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.07, 0.0, 0.06, 0.0, 0.01, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.0, 0.17, 0.0, 0.02, 0.0, 0.12, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.03, 0.0, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.0, 0.03, 0.0, 0.08, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.73, 0.0, 0.8, 0.0, 0.17, 0.0, 1.29, 0.0, 0.16, 0.0, 0.35, 0.06, 0.11, 0.0, 0.24, 0.0, 0.01, 0.0, 0.05, 0.01, 0.05, 0.01, 0.09, 0.0, 0.01, 0.0, 0.0, 0.0, 0.05, 0.0, 0.38]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.604834997610848</v>
+        <v>3.570184055479494</v>
       </c>
       <c r="C5" t="n">
-        <v>2.555992957736778</v>
+        <v>2.197521330954491</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6283635492292658</v>
+        <v>0.6873678127465672</v>
       </c>
       <c r="E5" t="n">
-        <v>3.257299494980467</v>
+        <v>3.011627467001854</v>
       </c>
       <c r="F5" t="n">
-        <v>1.403957264306859</v>
+        <v>1.512331640216523</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02274730753298069</v>
+        <v>0.02473863375370597</v>
       </c>
       <c r="H5" t="n">
-        <v>0.233776902195234</v>
+        <v>0.2573611276008869</v>
       </c>
       <c r="I5" t="n">
-        <v>15.18911123140522</v>
+        <v>6.786486572594101</v>
       </c>
       <c r="J5" t="n">
-        <v>33.91618345274126</v>
+        <v>34.39656378186635</v>
       </c>
       <c r="K5" t="n">
-        <v>1.818134747481605</v>
+        <v>1.920389793765839</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9944637952183076</v>
+        <v>1.247019562797633</v>
       </c>
       <c r="M5" t="n">
-        <v>2.3441299537355</v>
+        <v>2.527151160892439</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[22.062828467809833, 18.95863655435169, 23.937859135687138, 21.612255782310186, 4.720963884632035, 5.338642149460853, 0.6633249580710797, 4.253281086408469, 1.6874537030686194, 2.217453494439061, 1.070327052820772, 0.40693979898751614, 1.5716233645501712, 0.17058722109231983, 0.4898979485566353, 0.38157568056677843, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[21.32287738556877, 21.853137074571233, 22.09643410145628, 17.781661902083282, 5.009780434310471, 5.776677245614471, 0.7835177087979565, 3.9796482256601524, 1.7780888616714288, 2.803569153775237, 1.248839461259934, 0.39736632972611063, 1.5588136514670383, 0.17058722109231975, 0.40049968789001605, 0.2764054992217046, 0.09949874371066193, 0.13999999999999985, 0.0, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[24.801231824246155, 4.4235280037544635, 16.986685962835722, 6.14572208938869, 15.499919354628913, 13.318873826266238, 1.4563996704201785, 21.810859680443595, 3.764186499099106, 23.731200980987033, 3.5006285149955576, 17.255793230101016]</t>
+          <t>[24.5881658527024, 0.6003332407921447, 14.274046377954646, 0.9987992791347028, 15.927645777075783, 16.647221990470364, 1.2140428328522859, 20.970350497786157, 3.156881372494063, 20.426304119933196, 2.507668239620224, 16.993207466514377]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[9.633296424381426, 55.855716806787115, 83.02248129271973, 31.066179359554344, 29.82989104908028, 4.339769579136663, 6.182386270688688, 3.71185937233619, 5.985474083144961, 1.7853571071357126, 2.2912660255849824, 1.5649600633882006, 3.5857495729623943, 1.2183595528414415, 1.6028412273210346, 0.7549172140042902, 6.327866939182587, 0.7921489758877432, 0.5264028875300742, 0.5953150426454884, 0.8031811750782007, 0.29171904291629647, 0.2551470164434616, 0.2416609194718914, 0.3544009029333872, 0.2215851980616034, 0.17058722109231994, 0.1959591794226542, 0.19595917942265423, 0.0, 0.0, 0.0]</t>
+          <t>[11.746556942355491, 56.350687662174984, 80.4459638515196, 28.210513997444295, 40.82985549815233, 5.0384124483809405, 6.635442713188019, 3.2093613071762443, 10.145319117701524, 1.4230600830604456, 2.3718979741970347, 1.4809118812407445, 4.3571894611090745, 1.339365521431697, 1.4863041411501214, 1.2414104881142263, 8.59497527628788, 0.6737210105080589, 0.9368030742904306, 0.40693979898751587, 0.5916079783099616, 0.30594117081556715, 0.0, 0.17058722109231994, 0.4330127018922198, 0.19595917942265415, 0.09949874371066196, 0.19595917942265428, 0.2861817604250836, 0.09949874371066197, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.41605288125429407, 83.08678836012376, 0.0, 63.70777895987269, 0.0, 17.133230868694906, 0.0, 48.8599017600322, 0.0, 8.867214895332127, 0.0, 4.702169711952136, 1.6774683305505356, 2.84357169770695, 0.0, 11.32386859690627, 0.0, 1.40356688476182, 0.7670723564306037, 1.5226293048539434, 0.6814690014960331, 1.848675201326615, 0.09949874371066196, 2.234815428620448, 0.0, 0.8522910301065009, 0.6415605972938181, 0.7027801932325639, 0.4160528812542942, 0.7493997598078077, 0.0, 9.307523838271916, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.7783957862167549, 81.41236945329622, 0.0, 66.78946848119095, 0.0, 27.353610364995706, 0.0, 51.24497633914957, 0.0, 7.559490723587136, 0.09949874371066196, 7.705296879420024, 2.2014540649307226, 4.921168560413268, 0.0, 12.949270249709054, 0.0, 2.331179958733345, 0.7078841713161832, 2.1300469478394133, 0.8064738061462388, 2.504615738990713, 0.09949874371066199, 3.03609947136124, 0.0, 0.8968834929911464, 0.5894913061275798, 1.2497599769555754, 0.40693979898751603, 0.9969453345093722, 0.0, 8.559415867919956, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[19.812682806727615, 0.1989974874213239, 6.2320462129223655, 0.7141428428542843, 2.3663473963051156, 0.9055385138137407, 0.0, 3.2639086997034696, 0.1705872210923199, 7.909557509747305, 0.4955804677345543, 5.960964687028433], [0.2598076211353322, 1.3753544997563338, 1.013656746635662, 0.2958039891549806, 0.36932370625238825, 0.8518215775618743, 0.09949874371066195, 0.09949874371066195, 0.3411744421846396, 0.2984962311319859, 0.1705872210923198, 0.13999999999999987], [6.327171563977067, 1.2114454176726235, 7.64132841854085, 0.36932370625238814, 6.847912090557238, 0.9083501527494777, 0.13999999999999987, 2.150604566162735, 0.0, 1.3466996695625946, 0.09949874371066197, 1.6115520469410844], [0.2958039891549805, 0.6731270311018566, 0.3136877428271623, 3.295132774259637, 0.7196526940128815, 0.5878775382679629, 0.09949874371066195, 0.0, 0.5148786264742395, 0.09949874371066196, 0.6042350536008313, 0.09949874371066199], [2.5346400138875738, 0.3241913015489463, 6.648872084797541, 0.8799999999999996, 8.653993297894331, 4.081801073055865, 0.2598076211353319, 6.480740698407858, 0.13999999999999996, 3.05081956201936, 0.19899748742132398, 1.1377170122662315], [0.5929586832149442, 0.49507575177946195, 0.9127431182978037, 0.41231056256176624, 5.233201696858246, 5.320479301717095, 0.13999999999999987, 2.0180188304374176, 0.6581033353509157, 0.5346961754117937, 0.19899748742132398, 0.09949874371066196], [0.0, 0.1989974874213239, 0.0, 0.09949874371066195, 0.43588989435406783, 0.22158519806160343, 0.44317039612320624, 0.13999999999999987, 0.13999999999999987, 0.17058722109231986, 0.13999999999999996, 0.09949874371066196], [3.0640496079535002, 0.0, 1.7634057956125695, 0.0, 6.324839918922849, 2.3680160472429232, 0.2551470164434616, 12.01613914699726, 0.13999999999999993, 8.438151456332125, 0.21794494717703375, 0.9921693403849959], [0.29580398915498063, 0.24166091947189128, 0.0, 0.34117444218464, 0.24166091947189106, 0.4621688003316531, 0.0, 0.09949874371066199, 1.3872274507087872, 0.606300255648965, 0.5942221806698231, 0.2598076211353317], [8.585941998406467, 0.27999999999999975, 1.5942396306703717, 0.09949874371066196, 3.329429380539555, 0.695988505652213, 0.2917190429162961, 8.181344632760556, 0.879715863219483, 10.96957610849207, 0.36551333764994126, 5.864290238383498], [0.33704599092705406, 0.19899748742132398, 0.19595917942265415, 0.4302324952859785, 0.3278719262150998, 0.3655133376499411, 0.13999999999999987, 0.2215851980616031, 0.6269768735766893, 0.4710626285325549, 1.2872839624573895, 0.0], [5.904269641539078, 0.09949874371066193, 0.8052328855678953, 0.0, 1.0108906963663284, 0.3491418050019219, 0.0, 2.0760298649104256, 0.1399999999999999, 5.978720598924153, 0.3411744421846399, 5.112729212465687]]</t>
+          <t>[[19.119581585379947, 0.0, 5.3269503470559965, 0.19595917942265423, 2.6157981573508295, 0.9830564581955598, 0.09949874371066196, 3.0093853192969497, 0.09949874371066199, 6.126818097511954, 0.6766830868286859, 6.200411276681573], [0.09949874371066196, 0.09949874371066199, 0.2598076211353318, 0.0, 0.09949874371066195, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066199, 0.09949874371066199], [6.106545668379136, 0.21794494717703405, 6.703730304837749, 0.2764054992217047, 6.106349154773252, 1.4517231140957976, 0.13999999999999987, 1.9227844392963034, 0.0, 1.6695807857064, 0.13999999999999987, 1.5041276541570527], [0.17058722109231966, 0.09949874371066199, 0.36551333764994076, 0.1705872210923198, 0.21794494717703367, 0.1705872210923197, 0.0, 0.09949874371066195, 0.13999999999999993, 0.09949874371066199, 0.3136877428271623, 0.0], [2.5035175254030078, 0.09949874371066195, 6.523771915081028, 0.3655133376499408, 8.588573804771082, 6.191090372462675, 0.5271622141238882, 6.305323147944124, 0.1399999999999999, 3.1041262860908225, 0.19899748742132398, 1.203162499415603], [0.610245852095694, 0.09949874371066196, 1.0618380290797653, 0.35369478367654716, 6.897564787662382, 5.724124387187972, 0.0, 3.345145736735546, 0.27640549922170476, 0.6954135460285483, 0.09949874371066196, 0.13999999999999985], [0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.6636264009214812, 0.22158519806160298, 0.09949874371066196, 0.13999999999999987, 0.19899748742132392, 0.21794494717703367, 0.0, 0.0], [2.6863357943488757, 0.0, 1.9010260387485491, 0.13999999999999987, 6.7650498889513, 3.418698582794333, 0.31048349392520025, 12.530219471342074, 0.09949874371066196, 6.804674863650725, 0.19899748742132392, 1.5034626699722209], [0.09949874371066196, 0.13999999999999993, 0.09949874371066199, 0.09949874371066199, 0.0, 0.36055512754639873, 0.3278719262150996, 0.17058722109231972, 1.861692778092023, 0.34914180500192227, 0.3570714214271423, 0.3278719262150998], [5.80775343829264, 0.0, 1.723339780774529, 0.0, 3.6035538014576676, 0.926228913390206, 0.19595917942265423, 6.957269579368045, 0.831624915451672, 11.142759981261376, 0.09949874371066195, 5.852136362047623], [0.7601973427998805, 0.09949874371066199, 0.19899748742132392, 0.09949874371066196, 0.38091993909481797, 0.0, 0.0, 0.31368774282716233, 0.13999999999999993, 0.09949874371066195, 0.8562125904236645, 0.17058722109231989], [6.748659126078307, 0.13999999999999993, 0.973396116696589, 0.0, 1.090871211463571, 0.221585198061603, 0.09949874371066199, 1.947588252172415, 0.19595917942265417, 5.624331071336393, 0.24166091947189128, 4.414193017981883]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.2764054992217044, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 73.33176392260043, 0.0, 13.929720025901453, 0.0, 5.084722214634738, 0.0, 18.023329326181667, 0.0, 3.433292880020577, 0.0, 1.4676171162806746, 0.5844655678480981, 1.0148398888494667, 0.0, 3.2436245158772623, 0.0, 0.7901898506055368, 0.34336569426778807, 0.5425863986500217, 0.1705872210923198, 0.38157568056677843, 0.0, 0.6982836100038441, 0.0, 0.3411744421846398, 0.17058722109231975, 0.13999999999999996, 0.13999999999999996, 0.5196152422706634, 0.0, 1.5917286200857228], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1705872210923197, 13.00862790612446, 0.0, 53.53507635186485, 0.0, 3.9872170746022855, 0.0, 14.446023674354128, 0.0, 1.603090764741661, 0.0, 1.4517231140957976, 0.6301587101675264, 0.8491760712596655, 0.0, 4.499511084551299, 0.0, 0.43943145085439644, 0.45552167895721546, 0.5038849074937649, 0.3713488925525429, 0.3872983346207415, 0.0, 0.715821206726931, 0.0, 0.41231056256176607, 0.32787192621509964, 0.3491418050019222, 0.3278719262150997, 0.19595917942265412, 0.0, 1.8601075237738274], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 4.601945240873689, 0.0, 3.6890513685770228, 0.0, 5.374532537812011, 0.0, 4.326014331922631, 0.0, 0.8678133439859052, 0.0, 0.5450688029964662, 0.44844174649557345, 0.4910193478876369, 0.0, 2.1700460824600016, 0.0, 0.3433656942677881, 0.09949874371066196, 0.4795831523312729, 0.13999999999999993, 0.29171904291629636, 0.0, 0.4069397989875161, 0.0, 0.27640549922170443, 0.09949874371066199, 0.19899748742132398, 0.0, 0.2764054992217046, 0.0, 0.7681145747868615], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231977, 17.194871328393244, 0.0, 14.709082228337705, 0.0, 4.236637817892862, 0.0, 35.59389132983357, 0.0, 1.2142487389328438, 0.0, 1.4049555153100053, 0.5400000000000005, 0.6677574409918619, 0.0, 4.749989473672548, 0.0, 0.48414873747640874, 0.39127995093027673, 0.7306846104852627, 0.4630334761116091, 0.4160528812542941, 0.09949874371066196, 0.8252878285786114, 0.0, 0.4160528812542942, 0.23748684174075835, 0.28618176042508386, 0.13999999999999987, 0.17058722109231972, 0.0, 4.197618372363073], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 3.7247281780017194, 0.0, 1.098134782255803, 0.0, 0.8890444308357143, 0.0, 1.5278743403827426, 0.0, 2.3136767276350403, 0.0, 0.2764054992217046, 0.19595917942265403, 0.2416609194718914, 0.0, 0.5929586832149443, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.34914180500192193, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.09949874371066197, 0.13999999999999987, 0.0, 0.0, 0.0, 0.43588989435406783], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.939355563067278, 0.0, 1.507448174896901, 0.0, 0.6095900261651274, 0.0, 1.2844843323295148, 0.0, 0.49101934788763685, 0.0, 0.5295280917949493, 0.2958039891549803, 0.19595917942265395, 0.0, 0.3491418050019225, 0.0, 0.09949874371066199, 0.09949874371066195, 0.13999999999999999, 0.0, 0.2764054992217046, 0.0, 0.1705872210923199, 0.0, 0.09949874371066199, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.3655133376499407], [0.0, 0.8272847151978576, 0.0, 0.5744562646538027, 0.0, 0.3059411708155671, 0.0, 0.5211525688318157, 0.0, 0.19595917942265412, 0.0, 0.17058722109232002, 0.0, 0.2215851980616029, 0.0, 0.2551470164434615, 0.0, 0.09949874371066199, 0.09949874371066199, 0.13999999999999985, 0.09949874371066199, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 1.554702543897061, 0.0, 0.6257795138864813, 0.0, 0.3536947836765472, 0.0, 0.5122499389946283, 0.0, 0.2551470164434616, 0.0, 0.27640549922170476, 0.13999999999999987, 0.13999999999999987, 0.0, 0.2917190429162965, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.19899748742132392, 0.0, 0.13999999999999987, 0.0, 0.0, 0.2215851980616029, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.23748684174075807], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 3.1662438314191776, 0.0, 4.497766112193916, 0.0, 2.169239498073001, 0.0, 4.899091752559853, 0.0, 0.47497368348151564, 0.0, 0.6458327956987009, 0.23748684174075824, 0.5172040216394306, 0.0, 2.7866826155843465, 0.0, 0.21794494717703367, 0.19595917942265398, 0.17058722109232008, 0.09949874371066199, 0.2416609194718912, 0.0, 0.19595917942265423, 0.0, 0.13999999999999987, 0.09949874371066195, 0.0, 0.09949874371066196, 0.13999999999999985, 0.0, 0.788923316932641], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.7921489758877436, 0.0, 0.5894913061275802, 0.0, 0.28618176042508375, 0.0, 0.37469987990390424, 0.0, 0.1399999999999999, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.195959179422654, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1959591794226542], [0.0, 0.37469987990390413, 0.0, 0.27640549922170476, 0.0, 0.0, 0.0, 0.4013726448077898, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.17058722109231972, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.6421837743200923, 0.0, 0.6493073232299171, 0.0, 0.2799999999999998, 0.0, 0.481248376620639, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.23748684174075785, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066193, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.25514701644346155, 0.0, 0.3059411708155671, 0.0, 0.22158519806160326, 0.0, 0.33166247903553986, 0.0, 0.13999999999999999, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.4160528812542942, 0.0, 0.38729833462074154, 0.0, 0.3136877428271622, 0.0, 0.5291502622129176, 0.0, 0.4023679907746148, 0.0, 0.2598076211353318, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.762627038597505, 0.0, 0.931396800509858, 0.0, 0.35369478367654716, 0.0, 0.5477225575051655, 0.0, 0.24166091947189133, 0.0, 0.21794494717703358, 0.0, 0.3278719262150994, 0.0, 0.17058722109231972, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.13999999999999987, 0.0, 0.0, 0.0, 0.45825756949558494], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4123105625617661, 0.0, 0.4330127018922197, 0.0, 0.09949874371066195, 0.0, 0.3433656942677881, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21794494717703397, 0.0, 0.4264973622427225, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.33166247903553986, 0.0, 0.0, 0.0, 0.38157568056677843, 0.0, 0.13999999999999993, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985], [0.0, 0.19595917942265415, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.33704599092705423, 0.0, 0.1399999999999999, 0.0, 0.21794494717703367, 0.0, 0.27129319932501095, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1989974874213239], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 1.4489996549343962, 0.0, 1.5493224325491441, 0.0, 0.6800000000000003, 0.0, 3.890231355587999, 0.0, 0.5706137047074838, 0.0, 0.5102940328869231, 0.2598076211353318, 0.2764054992217051, 0.0, 0.842614977317637, 0.0, 0.1399999999999999, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.43588989435406744, 0.0, 0.17058722109231983, 0.0, 0.1399999999999999, 0.13999999999999987, 0.19899748742132392, 0.0, 2.4234479569406853]]</t>
+          <t>[[0.0, 0.1399999999999999, 0.0, 0.17058722109231972, 0.0, 0.09949874371066196, 0.0, 0.45825756949558455, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.31368774282716233, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 63.96566188198165, 0.0, 15.757423647284476, 0.0, 3.8850868716156124, 0.0, 17.751650627476867, 0.0, 2.520396794157617, 0.0, 1.7564452738414593, 0.5678027826631361, 1.276557871778635, 0.0, 4.483346964043716, 0.0, 0.8109253973085322, 0.271293199325011, 0.5530822723609935, 0.2861817604250837, 0.6118823416311338, 0.0, 0.5346961754117942, 0.0, 0.1959591794226541, 0.2598076211353318, 0.2551470164434615, 0.2179449471770338, 0.24166091947189133, 0.0, 1.3067134345371996], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 14.809790680492414, 0.0, 56.31728952994808, 0.0, 3.306523854442909, 0.0, 11.940732808333001, 0.0, 1.7149635564641006, 0.0, 2.088324687398968, 0.7123903424387508, 0.7144228439796707, 0.0, 3.560603881366192, 0.0, 0.4898979485566352, 0.17058722109231975, 1.0963119993870354, 0.17058722109231972, 0.6324555320336755, 0.0, 0.6343500610861484, 0.0, 0.27129319932501084, 0.1705872210923198, 0.4534313619501853, 0.24166091947189144, 0.13999999999999996, 0.0, 1.8429324458590453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19899748742132395, 3.443312358761547, 0.0, 3.0778401517947587, 0.0, 15.290990811585749, 0.0, 6.143907551387796, 0.0, 1.0099504938362067, 0.0, 0.6095900261651275, 0.5660388679233965, 0.5660388679233963, 0.0, 1.6493635136015339, 0.0, 0.24166091947189117, 0.09949874371066196, 0.4955804677345536, 0.3136877428271622, 0.24166091947189117, 0.0, 1.111035552986491, 0.0, 0.195959179422654, 0.2598076211353318, 0.17058722109231989, 0.0, 0.6244997998398387, 0.0, 0.7168681887209101], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.49030602688525066, 17.04075995957927, 0.0, 12.655291383449061, 0.0, 5.901618422094063, 0.0, 35.429551224930854, 0.0, 1.375354499756335, 0.0, 1.9353552645444718, 0.679043444854598, 0.49749371855331, 0.0, 5.506323637419074, 0.0, 0.5346961754117942, 0.6433506042586726, 0.7190966555338716, 0.36551333764994137, 0.4556314299957806, 0.0, 1.0121264743104, 0.0, 0.2861817604250839, 0.25514701644346155, 0.5528109984434098, 0.09949874371066196, 0.2917190429162964, 0.0, 3.178977823137494], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.6587779147570783, 0.0, 1.2984221193433203, 0.0, 0.9463614531456785, 0.0, 1.5961202962183032, 0.0, 0.7911384202527394, 0.0, 0.7911384202527394, 0.2799999999999997, 0.7838367176906169, 0.0, 0.6019966777316968, 0.0, 0.43023249528597823, 0.0, 0.13999999999999985, 0.13999999999999987, 0.22158519806160323, 0.0, 0.2917190429162962, 0.0, 0.17058722109231994, 0.2215851980616032, 0.0, 0.0, 0.09949874371066199, 0.0, 0.8724104538575845], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 2.4681166909204273, 0.0, 2.4346663015698886, 0.0, 0.6212084996198942, 0.0, 1.54, 0.0, 1.047425415005765, 0.09949874371066196, 1.2134249049694004, 0.13999999999999999, 0.6147357155721468, 0.0, 0.7262919523166975, 0.0, 0.13999999999999985, 0.09949874371066193, 0.2416609194718914, 0.09949874371066196, 0.41999999999999943, 0.0, 0.2598076211353319, 0.0, 0.09949874371066193, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.9096702699330126], [0.0, 0.9659710140578743, 0.0, 0.5477225575051656, 0.0, 0.5344155686354948, 0.0, 0.584037670017953, 0.0, 0.31921779399024736, 0.0, 0.3104834939252007, 0.09949874371066199, 0.259807621135332, 0.0, 0.2764054992217049, 0.0, 0.09949874371066199, 0.0, 0.0, 0.1399999999999999, 0.13999999999999987, 0.0, 0.09949874371066193, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.29171904291629625], [0.0, 1.458595214581484, 0.0, 0.749399759807808, 0.0, 0.5666568626602877, 0.0, 0.6939740629158992, 0.0, 0.7748548251124204, 0.0, 0.5309425580983311, 0.22158519806160343, 0.5230678732248807, 0.0, 0.4217819341792631, 0.0, 0.4582575694955842, 0.0, 0.09949874371066196, 0.0, 0.2215851980616032, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.5744562646538028], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 4.1841964581028, 0.0, 3.7854854378269627, 0.0, 1.9046259475288043, 0.0, 5.62672195865408, 0.0, 0.7355949972641187, 0.0, 0.8888194417315598, 0.48774993593028815, 0.45552167895721574, 0.0, 2.526083925763354, 0.0, 0.3872983346207415, 0.09949874371066199, 0.17058722109231994, 0.13999999999999987, 0.09949874371066199, 0.0, 0.25980762113533196, 0.0, 0.09949874371066193, 0.09949874371066195, 0.09949874371066195, 0.0, 0.0, 0.0, 0.9327379053088822], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7168681887209112, 0.0, 0.36482872693909374, 0.0, 0.2958039891549806, 0.0, 0.6264183905346328, 0.0, 0.40236799077461466, 0.0, 0.2416609194718914, 0.1959591794226541, 0.3411744421846398, 0.0, 0.25980762113533196, 0.0, 0.0, 0.0, 0.13999999999999985, 0.09949874371066196, 0.2215851980616032, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.3278719262150996], [0.0, 0.25514701644346155, 0.0, 0.21794494717703386, 0.0, 0.09949874371066199, 0.0, 0.447660585711988, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193], [0.0, 0.5895761189193474, 0.0, 1.0934349546269322, 0.0, 0.35369478367654716, 0.0, 0.5758472019555191, 0.0, 0.22158519806160312, 0.0, 0.4448595283907046, 0.09949874371066196, 0.24166091947189128, 0.0, 0.23748684174075815, 0.0, 0.09949874371066199, 0.0, 0.2215851980616032, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.19899748742132398, 0.09949874371066195, 0.0, 0.0, 0.1705872210923198], [0.0, 0.4247352116319062, 0.0, 0.09949874371066195, 0.0, 0.22158519806160284, 0.0, 0.21794494717703367, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.19899748742132392], [0.0, 0.852936105461599, 0.0, 0.28618176042508386, 0.0, 0.4493328387732185, 0.0, 0.28618176042508375, 0.0, 0.40926763859362286, 0.0, 0.3570714214271418, 0.2215851980616032, 0.13999999999999985, 0.0, 0.19595917942265415, 0.0, 0.2215851980616033, 0.0, 0.09949874371066199, 0.0, 0.1399999999999999, 0.0, 0.221585198061603, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.3278719262150993], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9173875952943773, 0.0, 0.6575712889109436, 0.0, 1.1014081895464574, 0.0, 0.8306623862918078, 0.0, 0.25514701644346155, 0.0, 0.24166091947189125, 0.09949874371066195, 0.13999999999999987, 0.0, 0.25980762113533207, 0.0, 0.19899748742132398, 0.0, 0.09949874371066195, 0.09949874371066196, 0.13999999999999987, 0.0, 0.24166091947189147, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.5418486873657626], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.40236799077461416, 0.0, 0.2179449471770337, 0.0, 0.09949874371066196, 0.0, 0.2551470164434615, 0.0, 0.1705872210923198, 0.0, 0.19899748742132392, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132392], [0.0, 0.291719042916296, 0.0, 0.23748684174075815, 0.0, 0.09949874371066195, 0.0, 0.276405499221705, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.19899748742132398, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3104834939252006, 0.0, 0.5109794516416488, 0.0, 0.13999999999999987, 0.0, 0.6523802572120038, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.17058722109231986, 0.0, 0.17058722109231966, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.27640549922170504, 0.0, 0.17058722109231989, 0.0, 0.6112282715974446, 0.0, 0.24166091947189133, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231977], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.317990895264456, 0.0, 1.7320508075688767, 0.0, 0.6009159675029447, 0.0, 2.9369882532962226, 0.0, 0.6437390775772429, 0.0, 1.2196310917650477, 0.27640549922170443, 0.5271622141238882, 0.0, 1.0111379727811618, 0.0, 0.09949874371066199, 0.0, 0.32787192621509964, 0.09949874371066196, 0.3570714214271418, 0.09949874371066199, 0.6339558344238184, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.25980762113533196, 0.0, 1.5477725931156672]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01124935688765218</v>
+        <v>0.009247888470226628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3892328684766538</v>
+        <v>0.4059047714871469</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006590245430413304</v>
+        <v>0.007914282457185321</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4608108344464658</v>
+        <v>0.4458185318831025</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008538812870317054</v>
+        <v>0.01276537500630616</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9167136286130617</v>
+        <v>0.9366550819625736</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008821210945586773</v>
+        <v>0.01215735453780441</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07256451207507386</v>
+        <v>0.05367528544995053</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0375322940117005</v>
+        <v>0.03601207371138878</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01929482745263474</v>
+        <v>0.0231406012985659</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006260254635992285</v>
+        <v>0.0215841085345567</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01062235910865266</v>
+        <v>0.01950316611939984</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03876011841673591</v>
+        <v>0.06833789165110521</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03623626314254601</v>
+        <v>0.06581580026118265</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01787215230524273</v>
+        <v>0.01719912275389282</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01397381384729525</v>
+        <v>0.01012160714047914</v>
       </c>
       <c r="R6" t="n">
-        <v>1.067446375371235</v>
+        <v>1.420686692888104</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09006133115954568</v>
+        <v>0.04753931663658573</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9658872903980553</v>
+        <v>0.9721886359075046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7439540332265694</v>
+        <v>0.7752891588204371</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9677734519289536</v>
+        <v>0.9368377952984691</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6726654845321007</v>
+        <v>0.6646613641070589</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9724134923794753</v>
+        <v>0.9547334957645143</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7053776829035797</v>
+        <v>0.703800255424242</v>
       </c>
       <c r="H7" t="n">
-        <v>0.899886023526849</v>
+        <v>0.9148184090957803</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5963624895515488</v>
+        <v>0.6296619540803131</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9542999114322832</v>
+        <v>0.9553981965462576</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9360905779976362</v>
+        <v>0.9049263447058922</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9540917002943474</v>
+        <v>0.9140204000671187</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9273436203696691</v>
+        <v>0.9235093087425363</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8515163751668311</v>
+        <v>0.8403200821243021</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9275564747696937</v>
+        <v>0.8984409628523001</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9398150606365705</v>
+        <v>0.9552817370899677</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9573674339179834</v>
+        <v>0.9768525458126387</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7756812069540699</v>
+        <v>0.7504342657479174</v>
       </c>
       <c r="S7" t="n">
-        <v>0.947407629434273</v>
+        <v>0.9617741226772475</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01761995304712249</v>
+        <v>0.04422931605398206</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1185199082015968</v>
+        <v>0.1865825099903019</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02792751567973589</v>
+        <v>0.0858741780479815</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1623358116276148</v>
+        <v>0.08818713095539193</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02298222641963704</v>
+        <v>0.07319107138530197</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2939777034693708</v>
+        <v>0.3346339717563301</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003544802376747746</v>
+        <v>0.05452310473529114</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1145722854615436</v>
+        <v>0.1744767534409155</v>
       </c>
       <c r="J8" t="n">
-        <v>2.037587778383049</v>
+        <v>2.319289847253849</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01482936056450854</v>
+        <v>0.02122525714434741</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07003665794116755</v>
+        <v>0.04314096374640657</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05070389128787826</v>
+        <v>0.03807900478462097</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5760962449902752</v>
+        <v>0.2674201106564592</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8575323022885757</v>
+        <v>0.2346939504587623</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7399162632536913</v>
+        <v>1.04045230777688</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1298710684703167</v>
+        <v>0.42604378779764</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2970328346997508</v>
+        <v>0.4160194128614272</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1642163159724662</v>
+        <v>0.473496110579763</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9509441662171046</v>
+        <v>0.955093615953548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8013520522033835</v>
+        <v>0.7998341401908627</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9530392514556604</v>
+        <v>0.9299814828418405</v>
       </c>
       <c r="E9" t="n">
-        <v>0.84931416539222</v>
+        <v>0.8508322367673744</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9526472548875115</v>
+        <v>0.943223932498694</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7675286688224483</v>
+        <v>0.7570288744625676</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7714050230350622</v>
+        <v>0.8065832944827791</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5461799209918207</v>
+        <v>0.6020238009774378</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6194654493990918</v>
+        <v>0.6367760302912121</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9285954498507453</v>
+        <v>0.9142059577751304</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9423880007988633</v>
+        <v>0.8958791704290596</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9230169151838659</v>
+        <v>0.9137518096335747</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6896147362606587</v>
+        <v>0.6523651089151917</v>
       </c>
       <c r="O9" t="n">
-        <v>0.855485089799942</v>
+        <v>0.8025724848544779</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9152014398136311</v>
+        <v>0.9232096495792923</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9353355253368083</v>
+        <v>0.9329432966887687</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7107013656637187</v>
+        <v>0.6688818034612168</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9371352885113613</v>
+        <v>0.9343145339135501</v>
       </c>
     </row>
   </sheetData>
